--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения 2-я ночная смена.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения 2-я ночная смена.xlsx
@@ -66,9 +66,6 @@
     <t>Согласовано:</t>
   </si>
   <si>
-    <t xml:space="preserve">     Прошу установить мне  рабочее время __________ 2019 с _____ ч. по _____ ч., предоставив свободное от работы время без сохранения заработной платы в связи со сложившимися семейными обстоятельствами  __________ 2019 с _____ ч. по _____ ч. и социальный отпуск __________ 2019 без сохранения заработной платы.</t>
-  </si>
-  <si>
     <t>Заместитель директора</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>_____________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Прошу установить мне  рабочее время __________  с _____ ч. по _____ ч., предоставив свободное от работы время без сохранения заработной платы в связи со сложившимися семейными обстоятельствами  __________  с ____ ч. по ____ ч. и социальный отпуск __________  без сохранения заработной платы.</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +733,7 @@
     </row>
     <row r="13" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -784,34 +784,34 @@
     </row>
     <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -829,7 +829,7 @@
       <c r="D33" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3YlB/pD0TjDCnGg0d9tNCXLN8Dfa/fmpLxNyM7zoSriECZKnK5PTHjGPWyX21aJIwsa6TC4pai9E0nkbhAidVg==" saltValue="gppRo+7oqpIhSWwifHtd3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A3:B3"/>

--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения 2-я ночная смена.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения 2-я ночная смена.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Отдел кадров\ЗАЯВЛЕНИЯ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Документация\ЗАЯВЛЕНИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9A13C8-FEF7-48AA-8F4D-A031D5C069AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="свой счет 2-я ночная" sheetId="1" r:id="rId1"/>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -241,6 +242,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -335,6 +339,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -370,6 +391,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -545,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,12 +853,12 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
